--- a/Finflux Automation Excels/Client/4990-GlimLoan-Submit-Modify-Approve-Disburse-VerifyTabs.xlsx
+++ b/Finflux Automation Excels/Client/4990-GlimLoan-Submit-Modify-Approve-Disburse-VerifyTabs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="16" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Group" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="84">
   <si>
     <t>Groupname</t>
   </si>
@@ -279,6 +279,15 @@
   </si>
   <si>
     <t>$702</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>Client 1</t>
+  </si>
+  <si>
+    <t>Head Office</t>
   </si>
 </sst>
 </file>
@@ -701,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,51 +722,59 @@
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="3">
         <v>41275</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="3">
         <v>41275</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2664,11 +2681,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
@@ -2920,7 +2940,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2987,7 +3007,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3402,8 +3422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3563,10 +3583,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3648,7 +3668,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3713,7 +3733,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3778,7 +3798,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3843,7 +3863,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3908,7 +3928,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3971,6 +3991,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Finflux Automation Excels/Client/4990-GlimLoan-Submit-Modify-Approve-Disburse-VerifyTabs.xlsx
+++ b/Finflux Automation Excels/Client/4990-GlimLoan-Submit-Modify-Approve-Disburse-VerifyTabs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Group" sheetId="1" r:id="rId1"/>
@@ -712,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -787,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -2427,10 +2427,13 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
